--- a/graduacion/graduacion.xlsx
+++ b/graduacion/graduacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/graduacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C2B6A4-4AA4-7943-A4B4-6BA090A672B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0C399-3194-4545-BB29-8A44AA81B410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Asesor</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>LUVIA PATRICIA FIGUEROA CASTRO</t>
-  </si>
-  <si>
-    <t>LINDA TANIA MIROSLAVA ENRIQUEZ PRECIADO</t>
   </si>
   <si>
     <t>ANA LAURA CONTRERAS IÐIGUEZ</t>
@@ -274,7 +271,55 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C87DCEC9-ADF3-6542-B74B-C24B313C8FAD}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -845,24 +890,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}" name="Tabla1354" displayName="Tabla1354" ref="A1:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}" name="Tabla1354" displayName="Tabla1354" ref="A1:J12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:J12" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition descending="1" ref="G1:G39"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{72D2009D-BA75-E148-8682-2CD934C4D1BE}" name="Asesor" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{35DD6B16-4E84-0448-85A9-56D3433EDF67}" name="Clave" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{8F8305CB-1285-C147-ADDD-A512A6CC9A0B}" name="Fecha_Corte" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{50AAE96A-6C15-DB42-BCCE-788EAB50B551}" name="Fecha_Conexion" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{2998FCE7-2422-D047-9271-F37CB1C4A052}" name="Mes_Asesor" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{98768849-7A15-E14B-A8ED-0472730EA7A6}" name="Limite_Logro_Meta" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5D22C7F2-A579-764D-8813-0D801782E76F}" name="Polizas_Totales" dataDxfId="10" dataCellStyle="Millares"/>
-    <tableColumn id="20" xr3:uid="{8A955D7D-7E9A-3D49-ACF3-1A3C07AB478A}" name="Comisones" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{0AFD8F35-E459-8743-8B6F-B29DC25FDA12}" name="Graduacion_Normal_Meta" dataDxfId="8" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{72D2009D-BA75-E148-8682-2CD934C4D1BE}" name="Asesor" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{35DD6B16-4E84-0448-85A9-56D3433EDF67}" name="Clave" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{8F8305CB-1285-C147-ADDD-A512A6CC9A0B}" name="Fecha_Corte" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{50AAE96A-6C15-DB42-BCCE-788EAB50B551}" name="Fecha_Conexion" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{2998FCE7-2422-D047-9271-F37CB1C4A052}" name="Mes_Asesor" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{98768849-7A15-E14B-A8ED-0472730EA7A6}" name="Limite_Logro_Meta" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5D22C7F2-A579-764D-8813-0D801782E76F}" name="Polizas_Totales" dataDxfId="13" dataCellStyle="Millares"/>
+    <tableColumn id="20" xr3:uid="{8A955D7D-7E9A-3D49-ACF3-1A3C07AB478A}" name="Comisones" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{0AFD8F35-E459-8743-8B6F-B29DC25FDA12}" name="Graduacion_Normal_Meta" dataDxfId="11" dataCellStyle="Millares">
       <calculatedColumnFormula>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6DD8D07D-9625-804F-89B3-D20881604EDA}" name="Graduacion_Honores_Meta2" dataDxfId="7" dataCellStyle="Millares">
+    <tableColumn id="3" xr3:uid="{6DD8D07D-9625-804F-89B3-D20881604EDA}" name="Graduacion_Honores_Meta2" dataDxfId="10" dataCellStyle="Millares">
       <calculatedColumnFormula>IF(G2&gt;=(E2*4),"EN META","POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1189,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3CF557-8EC8-CD40-9C10-648C71E32AFF}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1222,19 +1267,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -1245,13 +1290,13 @@
         <v>111960</v>
       </c>
       <c r="C2" s="6">
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D2" s="7">
         <v>45707</v>
       </c>
       <c r="E2" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="13">
         <v>46023</v>
@@ -1260,7 +1305,7 @@
         <v>9.5</v>
       </c>
       <c r="H2" s="9">
-        <v>94809.82</v>
+        <v>99074.55</v>
       </c>
       <c r="I2" s="10" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1273,20 +1318,20 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>112522</v>
       </c>
       <c r="C3" s="6">
         <f>C2</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D3" s="7">
         <v>45776</v>
       </c>
       <c r="E3" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="13">
         <v>46082</v>
@@ -1295,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="9">
-        <v>42633.02</v>
+        <v>44177.39</v>
       </c>
       <c r="I3" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1315,13 +1360,13 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:C12" si="1">C3</f>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D4" s="7">
         <v>45806</v>
       </c>
       <c r="E4" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="13">
         <v>46113</v>
@@ -1330,7 +1375,7 @@
         <v>10.5</v>
       </c>
       <c r="H4" s="9">
-        <v>93540.73</v>
+        <v>96223.59</v>
       </c>
       <c r="I4" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1350,13 +1395,13 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D5" s="7">
         <v>45863</v>
       </c>
       <c r="E5" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13">
         <v>46174</v>
@@ -1365,7 +1410,7 @@
         <v>12.5</v>
       </c>
       <c r="H5" s="9">
-        <v>56814.33</v>
+        <v>68894.89</v>
       </c>
       <c r="I5" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1378,29 +1423,29 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>113450</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D6" s="7">
         <v>45852</v>
       </c>
       <c r="E6" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="13">
         <v>46174</v>
       </c>
       <c r="G6" s="9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9">
-        <v>76489.83</v>
+        <v>93008.35</v>
       </c>
       <c r="I6" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1420,13 +1465,13 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D7" s="7">
         <v>45930</v>
       </c>
       <c r="E7" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="13">
         <v>46235</v>
@@ -1435,7 +1480,7 @@
         <v>6.5</v>
       </c>
       <c r="H7" s="9">
-        <v>18960.439999999999</v>
+        <v>22109.759999999998</v>
       </c>
       <c r="I7" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1455,13 +1500,13 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D8" s="7">
         <v>45904</v>
       </c>
       <c r="E8" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="13">
         <v>46235</v>
@@ -1470,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>28759.66</v>
+        <v>30823.33</v>
       </c>
       <c r="I8" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1490,57 +1535,57 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D9" s="7">
         <v>45944</v>
       </c>
       <c r="E9" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="13">
         <v>46266</v>
       </c>
       <c r="G9" s="9">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="H9" s="9">
-        <v>55997.8</v>
+        <v>81420.55</v>
       </c>
       <c r="I9" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
-        <v>EN META</v>
+        <v>POR DEBAJO</v>
       </c>
       <c r="J9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>EN META</v>
+        <v>POR DEBAJO</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>114664</v>
+        <v>115404</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D10" s="7">
-        <v>45950</v>
+        <v>45986</v>
       </c>
       <c r="E10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="13">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="G10" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H10" s="9">
-        <v>22297.5</v>
+        <v>48596.58</v>
       </c>
       <c r="I10" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1553,103 +1598,80 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
-        <v>115404</v>
+        <v>116060</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>46022</v>
+        <v>46059</v>
       </c>
       <c r="D11" s="7">
-        <v>45986</v>
+        <v>46010</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="13">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="G11" s="9">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H11" s="9">
-        <v>47808.2</v>
+        <v>36108.550000000003</v>
       </c>
       <c r="I11" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
-        <v>EN META</v>
+        <v>POR DEBAJO</v>
       </c>
       <c r="J11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>EN META</v>
+        <v>POR DEBAJO</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>116060</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
-        <v>46022</v>
-      </c>
-      <c r="D12" s="7">
-        <v>46010</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
-        <v>46327</v>
-      </c>
-      <c r="G12" s="9">
-        <v>6</v>
-      </c>
-      <c r="H12" s="9">
-        <v>14674.8</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
-        <v>EN META</v>
-      </c>
-      <c r="J12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>EN META</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C12 E2:F12">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H12">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J12">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/graduacion/graduacion.xlsx
+++ b/graduacion/graduacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0C399-3194-4545-BB29-8A44AA81B410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53019877-EBC8-6249-A9C8-926883053F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
   </bookViews>
@@ -271,55 +271,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C87DCEC9-ADF3-6542-B74B-C24B313C8FAD}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <border>
         <left style="thin">
@@ -890,24 +842,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}" name="Tabla1354" displayName="Tabla1354" ref="A1:J12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}" name="Tabla1354" displayName="Tabla1354" ref="A1:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:J12" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition descending="1" ref="G1:G39"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{72D2009D-BA75-E148-8682-2CD934C4D1BE}" name="Asesor" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{35DD6B16-4E84-0448-85A9-56D3433EDF67}" name="Clave" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{8F8305CB-1285-C147-ADDD-A512A6CC9A0B}" name="Fecha_Corte" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{50AAE96A-6C15-DB42-BCCE-788EAB50B551}" name="Fecha_Conexion" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{2998FCE7-2422-D047-9271-F37CB1C4A052}" name="Mes_Asesor" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{98768849-7A15-E14B-A8ED-0472730EA7A6}" name="Limite_Logro_Meta" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{5D22C7F2-A579-764D-8813-0D801782E76F}" name="Polizas_Totales" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="20" xr3:uid="{8A955D7D-7E9A-3D49-ACF3-1A3C07AB478A}" name="Comisones" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{0AFD8F35-E459-8743-8B6F-B29DC25FDA12}" name="Graduacion_Normal_Meta" dataDxfId="11" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{72D2009D-BA75-E148-8682-2CD934C4D1BE}" name="Asesor" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{35DD6B16-4E84-0448-85A9-56D3433EDF67}" name="Clave" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{8F8305CB-1285-C147-ADDD-A512A6CC9A0B}" name="Fecha_Corte" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{50AAE96A-6C15-DB42-BCCE-788EAB50B551}" name="Fecha_Conexion" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{2998FCE7-2422-D047-9271-F37CB1C4A052}" name="Mes_Asesor" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{98768849-7A15-E14B-A8ED-0472730EA7A6}" name="Limite_Logro_Meta" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5D22C7F2-A579-764D-8813-0D801782E76F}" name="Polizas_Totales" dataDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="20" xr3:uid="{8A955D7D-7E9A-3D49-ACF3-1A3C07AB478A}" name="Comisones" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{0AFD8F35-E459-8743-8B6F-B29DC25FDA12}" name="Graduacion_Normal_Meta" dataDxfId="8" dataCellStyle="Millares">
       <calculatedColumnFormula>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6DD8D07D-9625-804F-89B3-D20881604EDA}" name="Graduacion_Honores_Meta2" dataDxfId="10" dataCellStyle="Millares">
+    <tableColumn id="3" xr3:uid="{6DD8D07D-9625-804F-89B3-D20881604EDA}" name="Graduacion_Honores_Meta2" dataDxfId="7" dataCellStyle="Millares">
       <calculatedColumnFormula>IF(G2&gt;=(E2*4),"EN META","POR DEBAJO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1235,7 +1187,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1290,7 +1242,7 @@
         <v>111960</v>
       </c>
       <c r="C2" s="6">
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D2" s="7">
         <v>45707</v>
@@ -1312,7 +1264,7 @@
         <v>POR DEBAJO</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f t="shared" ref="J2:J12" si="0">IF(G2&gt;=(E2*4),"EN META","POR DEBAJO")</f>
+        <f t="shared" ref="J2:J11" si="0">IF(G2&gt;=(E2*4),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
     </row>
@@ -1325,7 +1277,7 @@
       </c>
       <c r="C3" s="6">
         <f>C2</f>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D3" s="7">
         <v>45776</v>
@@ -1340,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="9">
-        <v>44177.39</v>
+        <v>45727.57</v>
       </c>
       <c r="I3" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1359,8 +1311,8 @@
         <v>113076</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ref="C4:C12" si="1">C3</f>
-        <v>46059</v>
+        <f t="shared" ref="C4:C11" si="1">C3</f>
+        <v>46071</v>
       </c>
       <c r="D4" s="7">
         <v>45806</v>
@@ -1395,7 +1347,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D5" s="7">
         <v>45863</v>
@@ -1410,7 +1362,7 @@
         <v>12.5</v>
       </c>
       <c r="H5" s="9">
-        <v>68894.89</v>
+        <v>69639.95</v>
       </c>
       <c r="I5" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1430,7 +1382,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D6" s="7">
         <v>45852</v>
@@ -1442,7 +1394,7 @@
         <v>46174</v>
       </c>
       <c r="G6" s="9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H6" s="9">
         <v>93008.35</v>
@@ -1465,7 +1417,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D7" s="7">
         <v>45930</v>
@@ -1487,7 +1439,7 @@
         <v>POR DEBAJO</v>
       </c>
       <c r="J7" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G7&gt;=(E7*4),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
     </row>
@@ -1500,7 +1452,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D8" s="7">
         <v>45904</v>
@@ -1515,14 +1467,14 @@
         <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>30823.33</v>
+        <v>31409.37</v>
       </c>
       <c r="I8" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
       <c r="J8" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G8&gt;=(E8*4),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
     </row>
@@ -1535,7 +1487,7 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D9" s="7">
         <v>45944</v>
@@ -1550,14 +1502,14 @@
         <v>13.5</v>
       </c>
       <c r="H9" s="9">
-        <v>81420.55</v>
+        <v>85425.04</v>
       </c>
       <c r="I9" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
       <c r="J9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(G9&gt;=(E9*4),"EN META","POR DEBAJO")</f>
         <v>POR DEBAJO</v>
       </c>
     </row>
@@ -1570,7 +1522,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D10" s="7">
         <v>45986</v>
@@ -1582,10 +1534,10 @@
         <v>46296</v>
       </c>
       <c r="G10" s="9">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H10" s="9">
-        <v>48596.58</v>
+        <v>49591.66</v>
       </c>
       <c r="I10" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1605,7 +1557,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>46059</v>
+        <v>46071</v>
       </c>
       <c r="D11" s="7">
         <v>46010</v>
@@ -1617,10 +1569,10 @@
         <v>46327</v>
       </c>
       <c r="G11" s="9">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H11" s="9">
-        <v>36108.550000000003</v>
+        <v>38447.01</v>
       </c>
       <c r="I11" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1645,33 +1597,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C12 E2:F12">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H12">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J12">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
